--- a/data/trans_dic/P1428-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P1428-Clase-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.05053719245105022</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.07862298795702191</v>
+        <v>0.0786229879570219</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.06567914362546771</v>
@@ -697,7 +697,7 @@
         <v>0.03355292305390136</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.05814139701401817</v>
+        <v>0.05814139701401816</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02977241090747723</v>
+        <v>0.02798100456537974</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02115751505502382</v>
+        <v>0.02092856056306927</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.008434580029947339</v>
+        <v>0.008970057280725958</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.02648824428979436</v>
+        <v>0.02775115356513364</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.06534793172025244</v>
+        <v>0.06675123629654021</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.02811735136439367</v>
+        <v>0.02842654399715245</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.03107920262308174</v>
+        <v>0.02900860416277026</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.05980355102874884</v>
+        <v>0.06053125464373264</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.04855111913773084</v>
+        <v>0.0499429907238939</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.028978376368247</v>
+        <v>0.02793490144365511</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.0215120597251147</v>
+        <v>0.02026645492390742</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.04694750091040385</v>
+        <v>0.04492913781236706</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.07120230445633947</v>
+        <v>0.06764691612248781</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.06366552533640997</v>
+        <v>0.06141860154173654</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.03772547856173927</v>
+        <v>0.03828790034054114</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.05802246124573269</v>
+        <v>0.0586091185216087</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1328917561945888</v>
+        <v>0.1340381884849255</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.08113068007120093</v>
+        <v>0.08158699764815226</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.08364796145995944</v>
+        <v>0.08328168838817089</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1012122451644058</v>
+        <v>0.0996953539874162</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.0851185492569746</v>
+        <v>0.08626962765814079</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.06176912007274594</v>
+        <v>0.06022731428553885</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.04962411976356745</v>
+        <v>0.04919330807832619</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.07178379750527097</v>
+        <v>0.07094938368174603</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.03000957326776283</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.04169927053723931</v>
+        <v>0.0416992705372393</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.06078088250465133</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02291432031578352</v>
+        <v>0.02327259089952949</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02292295635841613</v>
+        <v>0.02250650839320565</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01535315452340927</v>
+        <v>0.01650455296531034</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.02791123908241187</v>
+        <v>0.02751671650761736</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.03884557693649193</v>
+        <v>0.03788798160035796</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.02678268477564056</v>
+        <v>0.02647535668838761</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.02011679255048125</v>
+        <v>0.01992033476044534</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.07984464429904282</v>
+        <v>0.07902044247259203</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.03594148518096621</v>
+        <v>0.03656792321572934</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.02947792400522122</v>
+        <v>0.02965647476780493</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.02182548426580624</v>
+        <v>0.02012913271752927</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.05680942591208027</v>
+        <v>0.05657857191601479</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.06587364444891498</v>
+        <v>0.06625992311632224</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06539810924094561</v>
+        <v>0.06541628345122721</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.05429525184439719</v>
+        <v>0.0569684537028178</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.06094967245548891</v>
+        <v>0.06315816600319317</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.09082008703852104</v>
+        <v>0.09172869693130822</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.07254181925470674</v>
+        <v>0.07306485658197565</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.06601219171411218</v>
+        <v>0.06366014044253286</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1252523697415348</v>
+        <v>0.1259274072571216</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.06841628879435835</v>
+        <v>0.06969142009482852</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.05972761757793106</v>
+        <v>0.05914861294783841</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.05109891445295529</v>
+        <v>0.04977970083161602</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.0857806723833746</v>
+        <v>0.08399423847436899</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.03274251896269768</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.05760255877470406</v>
+        <v>0.05760255877470408</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.1953039938891327</v>
@@ -969,7 +969,7 @@
         <v>0.0588011286992564</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.08636217156448381</v>
+        <v>0.08636217156448382</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.0509310597691526</v>
+        <v>0.05002119196106805</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.05249892991161598</v>
+        <v>0.05411941843350225</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02007744998489963</v>
+        <v>0.01885635527758243</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.04000405185348835</v>
+        <v>0.04083417154916893</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1355347838375695</v>
+        <v>0.1356347577912259</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1055839413294518</v>
+        <v>0.09930568349800883</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.09207854025740635</v>
+        <v>0.08955189822155044</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1172602278997013</v>
+        <v>0.1204251825364731</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.07650711291469788</v>
+        <v>0.07757557260235459</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.0774669139959242</v>
+        <v>0.0756468700283305</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.04203088189215685</v>
+        <v>0.04192330974035866</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.069195111279966</v>
+        <v>0.06746411335403295</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.09189815866111528</v>
+        <v>0.09227768162759466</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.09647947053922633</v>
+        <v>0.09815907866987984</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.05297384058233128</v>
+        <v>0.05089988862208846</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.07929893458489169</v>
+        <v>0.08036945536486527</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2708853164326691</v>
+        <v>0.2675811787383932</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1959588447826526</v>
+        <v>0.1946572061608597</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.212312398095778</v>
+        <v>0.2056561272640365</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2144387535190937</v>
+        <v>0.2142115769766654</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1220322888619398</v>
+        <v>0.120120086818849</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1192453147999387</v>
+        <v>0.1174874383712928</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.08123862154453887</v>
+        <v>0.08180146889337045</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1094275310230516</v>
+        <v>0.1085355024172427</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.04820731056095094</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.06657421003470949</v>
+        <v>0.06657421003470948</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.13858677636392</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.08976366786001561</v>
+        <v>0.0920004326164708</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.04387669876574717</v>
+        <v>0.04420241803334162</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03618593154418435</v>
+        <v>0.03655747502730925</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.05435142988036906</v>
+        <v>0.05408059150757437</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1119451051462123</v>
+        <v>0.1155489321011796</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.04158412729071263</v>
+        <v>0.04169938214973602</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.03857986355011794</v>
+        <v>0.03974974814020346</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.09427733767206599</v>
+        <v>0.09308765907755345</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1036481146613378</v>
+        <v>0.1039613121405</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.0460527592832113</v>
+        <v>0.04696885284704566</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.04101661345063742</v>
+        <v>0.0409660689625068</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.07544626195719309</v>
+        <v>0.07477689695909945</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1230446397127561</v>
+        <v>0.1254437121250063</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.07365133671293807</v>
+        <v>0.07309271080784961</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.06306088462351014</v>
+        <v>0.06385428510418385</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.08131579491053062</v>
+        <v>0.08080591445198672</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1636818977384064</v>
+        <v>0.1645236773998651</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.0767526903560988</v>
+        <v>0.08000929524783823</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.07092192316611801</v>
+        <v>0.07277259615090806</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1280365801329545</v>
+        <v>0.1269949048845928</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1325456128264408</v>
+        <v>0.1329925635074969</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.06812437385727182</v>
+        <v>0.07016486906625469</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.06186374190156358</v>
+        <v>0.06161166571125166</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.09565752351562923</v>
+        <v>0.0974611204337856</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.08877467264857403</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.136347416251538</v>
+        <v>0.1363474162515379</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.05934399554419833</v>
+        <v>0.05541223703279813</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.0360389913296121</v>
+        <v>0.03499427222126315</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.03289732854762834</v>
+        <v>0.03326894985503888</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.04554362372902911</v>
+        <v>0.04311053878203598</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1490091665585528</v>
+        <v>0.1467543514347267</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1201461610716615</v>
+        <v>0.1221040674782943</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1001866777775949</v>
+        <v>0.09871653436138743</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1676106502034929</v>
+        <v>0.1684238515138987</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1206101755925879</v>
+        <v>0.120656376351921</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.09293585860904724</v>
+        <v>0.09202860679966178</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.07473000485761473</v>
+        <v>0.07383326256872086</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1224825764298317</v>
+        <v>0.1225890746964277</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1141652247859744</v>
+        <v>0.1162158330668842</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.0770635519171342</v>
+        <v>0.07661835985114043</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.06507931005126459</v>
+        <v>0.06605846050357964</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.08244468663192014</v>
+        <v>0.08402321350377781</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2136789644384545</v>
+        <v>0.2112640481083166</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.175902074214568</v>
+        <v>0.1756895786945951</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1485073607944342</v>
+        <v>0.1473368115972041</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2081021434233396</v>
+        <v>0.2087907217004726</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1668559976407198</v>
+        <v>0.1647866650496727</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1294081391470726</v>
+        <v>0.1267741265612854</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1052991741496914</v>
+        <v>0.1049105112002476</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1515604581126947</v>
+        <v>0.1514347089342194</v>
       </c>
     </row>
     <row r="19">
@@ -1388,38 +1388,38 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.002614186815718453</v>
+        <v>0.002622253954184799</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.003727277032608326</v>
+        <v>0.003728682484557138</v>
       </c>
       <c r="E20" s="5" t="inlineStr"/>
       <c r="F20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2247096436715403</v>
+        <v>0.2258808724579189</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1718129383734112</v>
+        <v>0.1721849338450996</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.1084574151460745</v>
+        <v>0.1094383794505659</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1707283087305381</v>
+        <v>0.1711896030346044</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.1837671580375083</v>
+        <v>0.1818241577603638</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.1387601761572237</v>
+        <v>0.1404364632881899</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.08376065339980558</v>
+        <v>0.08573064483414461</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1332708519071849</v>
+        <v>0.1335321292594533</v>
       </c>
     </row>
     <row r="21">
@@ -1430,38 +1430,38 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.02525744196864031</v>
+        <v>0.0275986375929126</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.04685985490849491</v>
+        <v>0.04162232189307619</v>
       </c>
       <c r="E21" s="5" t="inlineStr"/>
       <c r="F21" s="5" t="n">
-        <v>0.01630966950816142</v>
+        <v>0.01606636583847897</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.2759415935770237</v>
+        <v>0.2742697444151586</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.2216956158680936</v>
+        <v>0.2193166800722042</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1533609301881664</v>
+        <v>0.1539377930725938</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.2157405806970988</v>
+        <v>0.2164342174201299</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2257593041878108</v>
+        <v>0.2235334373938452</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.1805322545619621</v>
+        <v>0.181551510398213</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1188588732949972</v>
+        <v>0.1194519294088525</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1701372883676864</v>
+        <v>0.1712691893848507</v>
       </c>
     </row>
     <row r="22">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.06425264933053859</v>
+        <v>0.06439887879057887</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.04375729053394525</v>
+        <v>0.04449128185566847</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.03013616593302933</v>
+        <v>0.02996501685364879</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.0459043583002065</v>
+        <v>0.04574954075667607</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1640164783110802</v>
+        <v>0.1641530401247782</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1118504635486268</v>
+        <v>0.1133813708059975</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.08419428446210456</v>
+        <v>0.08283774394872287</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1345002634283257</v>
+        <v>0.134938223585837</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1175627160654431</v>
+        <v>0.1167985418340375</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.081261486232963</v>
+        <v>0.080990446899561</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.05920941980593016</v>
+        <v>0.05885135367069538</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.09364628405461393</v>
+        <v>0.09376181994112671</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.08095438417219515</v>
+        <v>0.08173646234052206</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.06016363552696184</v>
+        <v>0.06070644102599471</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.04266435097091469</v>
+        <v>0.0432825500803157</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.0597437937596579</v>
+        <v>0.0602087589713288</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1893988361851832</v>
+        <v>0.1895422314507073</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1355305891968426</v>
+        <v>0.1364250689000818</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1044779968334957</v>
+        <v>0.1040026008497604</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1528618419681326</v>
+        <v>0.15282595188259</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1341169743873168</v>
+        <v>0.1322980310584732</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.09549382548198937</v>
+        <v>0.0958233240559322</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.07148175910892382</v>
+        <v>0.07110177509743382</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.1059466381832728</v>
+        <v>0.1051087375964994</v>
       </c>
     </row>
     <row r="25">
@@ -1870,40 +1870,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>14105</v>
+        <v>13257</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>9250</v>
+        <v>9150</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>3619</v>
+        <v>3849</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>14560</v>
+        <v>15254</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>20041</v>
+        <v>20471</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>8842</v>
+        <v>8939</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>10786</v>
+        <v>10068</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>29126</v>
+        <v>29480</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>37892</v>
+        <v>38978</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>21782</v>
+        <v>20998</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>16697</v>
+        <v>15730</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>48670</v>
+        <v>46578</v>
       </c>
     </row>
     <row r="7">
@@ -1914,40 +1914,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>33734</v>
+        <v>32049</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>27835</v>
+        <v>26853</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>16188</v>
+        <v>16429</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>31893</v>
+        <v>32216</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>40755</v>
+        <v>41107</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>25512</v>
+        <v>25655</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>29030</v>
+        <v>28903</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>49292</v>
+        <v>48554</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>66431</v>
+        <v>67330</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>46430</v>
+        <v>45271</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>38516</v>
+        <v>38181</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>74418</v>
+        <v>73553</v>
       </c>
     </row>
     <row r="8">
@@ -2050,40 +2050,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>8408</v>
+        <v>8540</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>9600</v>
+        <v>9426</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>5792</v>
+        <v>6226</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>13487</v>
+        <v>13296</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>14445</v>
+        <v>14089</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>9053</v>
+        <v>8949</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>7489</v>
+        <v>7416</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>33571</v>
+        <v>33225</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>26554</v>
+        <v>27016</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>22309</v>
+        <v>22444</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>16358</v>
+        <v>15087</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>51337</v>
+        <v>51128</v>
       </c>
     </row>
     <row r="11">
@@ -2094,40 +2094,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>24171</v>
+        <v>24313</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>27389</v>
+        <v>27396</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>20482</v>
+        <v>21490</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>29452</v>
+        <v>30519</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>33773</v>
+        <v>34111</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>24520</v>
+        <v>24697</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>24575</v>
+        <v>23699</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>52663</v>
+        <v>52947</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>50546</v>
+        <v>51488</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>45202</v>
+        <v>44764</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>38299</v>
+        <v>37310</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>77518</v>
+        <v>75903</v>
       </c>
     </row>
     <row r="12">
@@ -2230,40 +2230,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>27624</v>
+        <v>27131</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>33044</v>
+        <v>34064</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>10479</v>
+        <v>9841</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>18788</v>
+        <v>19178</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>22740</v>
+        <v>22757</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>27465</v>
+        <v>25832</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>15296</v>
+        <v>14877</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>21986</v>
+        <v>22579</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>54333</v>
+        <v>55092</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>68910</v>
+        <v>67291</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>28919</v>
+        <v>28845</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>45471</v>
+        <v>44334</v>
       </c>
     </row>
     <row r="15">
@@ -2274,40 +2274,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>49845</v>
+        <v>50050</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>60726</v>
+        <v>61783</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>27648</v>
+        <v>26565</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>37242</v>
+        <v>37745</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>45450</v>
+        <v>44895</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>50975</v>
+        <v>50636</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>35270</v>
+        <v>34164</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>40207</v>
+        <v>40164</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>86664</v>
+        <v>85306</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>106074</v>
+        <v>104510</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>55895</v>
+        <v>56282</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>71910</v>
+        <v>71323</v>
       </c>
     </row>
     <row r="16">
@@ -2410,40 +2410,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>111157</v>
+        <v>113927</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>50853</v>
+        <v>51231</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>41601</v>
+        <v>42028</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>61408</v>
+        <v>61102</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>79961</v>
+        <v>82535</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>31800</v>
+        <v>31888</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>31862</v>
+        <v>32828</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>80661</v>
+        <v>79643</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>202385</v>
+        <v>202997</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>88593</v>
+        <v>90355</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>81029</v>
+        <v>80929</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>149791</v>
+        <v>148462</v>
       </c>
     </row>
     <row r="19">
@@ -2454,40 +2454,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>152370</v>
+        <v>155341</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>85363</v>
+        <v>84715</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>72497</v>
+        <v>73409</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>91873</v>
+        <v>91297</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>116916</v>
+        <v>117517</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>58694</v>
+        <v>61185</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>58573</v>
+        <v>60101</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>109545</v>
+        <v>108654</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>258811</v>
+        <v>259684</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>131053</v>
+        <v>134978</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>122213</v>
+        <v>121715</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>189919</v>
+        <v>193500</v>
       </c>
     </row>
     <row r="20">
@@ -2590,40 +2590,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>20803</v>
+        <v>19425</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>18401</v>
+        <v>17868</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>20420</v>
+        <v>20650</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>25710</v>
+        <v>24337</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>84749</v>
+        <v>83467</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>91341</v>
+        <v>92829</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>73962</v>
+        <v>72877</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>138657</v>
+        <v>139329</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>110878</v>
+        <v>110920</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>118107</v>
+        <v>116954</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>101554</v>
+        <v>100336</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>170468</v>
+        <v>170617</v>
       </c>
     </row>
     <row r="23">
@@ -2634,40 +2634,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>40021</v>
+        <v>40740</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>39348</v>
+        <v>39121</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>40395</v>
+        <v>41003</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>46542</v>
+        <v>47433</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>121530</v>
+        <v>120157</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>133729</v>
+        <v>133567</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>109635</v>
+        <v>108771</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>172154</v>
+        <v>172723</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>153392</v>
+        <v>151490</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>164457</v>
+        <v>161110</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>143096</v>
+        <v>142568</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>210938</v>
+        <v>210763</v>
       </c>
     </row>
     <row r="24">
@@ -2770,7 +2770,7 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="D26" s="6" t="n">
         <v>995</v>
@@ -2780,28 +2780,28 @@
         <v>0</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>280608</v>
+        <v>282071</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>190601</v>
+        <v>191014</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>117354</v>
+        <v>118415</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>143705</v>
+        <v>144093</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>284280</v>
+        <v>281275</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>190966</v>
+        <v>193273</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>114683</v>
+        <v>117380</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>143792</v>
+        <v>144074</v>
       </c>
     </row>
     <row r="27">
@@ -2812,38 +2812,38 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>7532</v>
+        <v>8230</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>12506</v>
+        <v>11108</v>
       </c>
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="n">
-        <v>3869</v>
+        <v>3811</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>344585</v>
+        <v>342497</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>245938</v>
+        <v>243299</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>165940</v>
+        <v>166565</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>181593</v>
+        <v>182177</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>349241</v>
+        <v>345797</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>248454</v>
+        <v>249857</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>162738</v>
+        <v>163550</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>183569</v>
+        <v>184790</v>
       </c>
     </row>
     <row r="28">
@@ -2946,40 +2946,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>210118</v>
+        <v>210597</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>149734</v>
+        <v>152245</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>102033</v>
+        <v>101453</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>157640</v>
+        <v>157109</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>554068</v>
+        <v>554529</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>396724</v>
+        <v>402154</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>297340</v>
+        <v>292549</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>486827</v>
+        <v>488412</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>781594</v>
+        <v>776513</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>566297</v>
+        <v>564408</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>409570</v>
+        <v>407094</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>660546</v>
+        <v>661361</v>
       </c>
     </row>
     <row r="31">
@@ -2990,40 +2990,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>264736</v>
+        <v>267294</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>205875</v>
+        <v>207732</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>144450</v>
+        <v>146543</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>205166</v>
+        <v>206763</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>639813</v>
+        <v>640297</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>480715</v>
+        <v>483888</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>368974</v>
+        <v>367295</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>553287</v>
+        <v>553158</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>891652</v>
+        <v>879559</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>665480</v>
+        <v>667776</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>494462</v>
+        <v>491834</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>747308</v>
+        <v>741398</v>
       </c>
     </row>
     <row r="32">
